--- a/TCP.xlsx
+++ b/TCP.xlsx
@@ -516,13 +516,13 @@
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>251111</v>
+        <v>236661</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Коммерческое предложение на автоматику от 2024-05-02</t>
+          <t>Коммерческое предложение на автоматику от 2024-06-02</t>
         </is>
       </c>
     </row>
@@ -566,12 +566,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Датчики температуры в помещении</t>
+          <t>Дифф маноментр</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>TS-R01 PT1000</t>
+          <t>LeFoo</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -580,25 +580,25 @@
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>2</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="G19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Датчики влажности</t>
+          <t>Датчики температуры в канале</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>THS-02-190-Pt1000</t>
+          <t>MBT3280</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -607,25 +607,25 @@
         </is>
       </c>
       <c r="D20" s="3" t="n">
-        <v>10000</v>
+        <v>1650</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>10000</v>
+        <v>1650</v>
       </c>
       <c r="G20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Датчики температуры в канале</t>
+          <t>Датчики температуры в помещении</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>MBT3280</t>
+          <t>TS-R01 PT1000</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -634,25 +634,25 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>1650</v>
+        <v>1100</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>1650</v>
+        <v>2200</v>
       </c>
       <c r="G21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Воздушный термостат</t>
+          <t>Датчик температуры обратной воды*</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>TS-6 LEFOO</t>
+          <t>MBT3281</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -661,25 +661,25 @@
         </is>
       </c>
       <c r="D22" s="3" t="n">
-        <v>4400</v>
+        <v>1050</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>8800</v>
+        <v>1050</v>
       </c>
       <c r="G22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Дифф маноментр</t>
+          <t>Воздушный термостат</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>LeFoo</t>
+          <t>TS-6 LEFOO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -688,25 +688,25 @@
         </is>
       </c>
       <c r="D23" s="3" t="n">
-        <v>1500</v>
+        <v>4400</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="G23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Датчик температуры обратной воды*</t>
+          <t>Датчики влажности</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>MBT3281</t>
+          <t>THS-02-190-Pt1000</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -715,13 +715,13 @@
         </is>
       </c>
       <c r="D24" s="3" t="n">
-        <v>1050</v>
+        <v>10000</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>2100</v>
+        <v>10000</v>
       </c>
       <c r="G24" s="4" t="n"/>
     </row>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="D25" s="3" t="n">
-        <v>223361</v>
+        <v>214361</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>223361</v>
+        <v>214361</v>
       </c>
       <c r="G25" s="4" t="n"/>
     </row>

--- a/TCP.xlsx
+++ b/TCP.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,32 +26,58 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Tahoma"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <color rgb="0007B6F4"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
       <b val="1"/>
-      <i val="1"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <b val="1"/>
       <sz val="12"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Tahoma"/>
       <b val="1"/>
-      <i val="1"/>
-      <sz val="11"/>
+      <sz val="8"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <i val="1"/>
-      <sz val="11"/>
+      <name val="Tahoma"/>
+      <sz val="8"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7F5F5"/>
+        <bgColor rgb="00D7F5F5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -73,16 +99,80 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -163,12 +253,12 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>0</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="3095625" cy="1428750"/>
+    <ext cx="1809750" cy="857250"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -182,6 +272,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -478,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A10:G25"/>
+  <dimension ref="A5:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,270 +579,354 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="79" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="8.5" customWidth="1" min="3" max="3"/>
-    <col width="21.1" customWidth="1" min="4" max="4"/>
-    <col width="14.3" customWidth="1" min="5" max="5"/>
-    <col width="12.9" customWidth="1" min="6" max="6"/>
-    <col width="36.5" customWidth="1" min="7" max="7"/>
+    <col width="1" customWidth="1" min="1" max="1"/>
+    <col width="3" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Проект: </t>
-        </is>
-      </c>
-    </row>
+    <row r="5" ht="35" customHeight="1">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>+7 495 641 16 01
+info@altair-gr.ru</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>123290, г. Москва, 1-й Магистральный тупик, дом 5 А</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="23" customHeight="1">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>www.altair-gr.ru</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>фывавапроллрпавыфЫВАПРООРПАВ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>ООО «АЛТАИР ГРУПП»
+ИНН 7714427104
+КПП 771401001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9"/>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Исполнитель: </t>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Коммерческое предложение </t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Итого: </t>
-        </is>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>236661</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Коммерческое предложение на автоматику от 2024-06-02</t>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>на поставку оборудования</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>№ 4 от 2025-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Объект: ФЫВАПРОПАВЫФывапр</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>Исполнитель: фвыапрпиьрпаывыапрп</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>Уважаемый(ая) фвыапрпрпавыфвап</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="42" customHeight="1">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Благодарим за Ваш запрос.
+Предлагаем поставку оборудования ALTAIR согласно номенклатуре, ценам и коммерческим условиям, изложенным в настоящем предложении.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="9" t="inlineStr">
+        <is>
+          <t>№</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="inlineStr">
+        <is>
+          <t>Обозначение</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>Код 1С</t>
+        </is>
+      </c>
+      <c r="E21" s="9" t="inlineStr">
         <is>
           <t>Наименование</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>Артикул</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Ед.изм</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Стоимость за ед.</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Количество</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>Итого</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>Примечание</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Дифф маноментр</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>LeFoo</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>Кол-во</t>
+        </is>
+      </c>
+      <c r="G21" s="9" t="inlineStr">
+        <is>
+          <t>Ед.</t>
+        </is>
+      </c>
+      <c r="H21" s="9" t="inlineStr">
+        <is>
+          <t>Валюта</t>
+        </is>
+      </c>
+      <c r="I21" s="9" t="inlineStr">
+        <is>
+          <t>Цена</t>
+        </is>
+      </c>
+      <c r="J21" s="9" t="inlineStr">
+        <is>
+          <t>Сумма</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>Автоматика</t>
+        </is>
+      </c>
+      <c r="C22" s="15" t="n"/>
+      <c r="D22" s="15" t="n"/>
+      <c r="E22" s="15" t="n"/>
+      <c r="F22" s="15" t="n"/>
+      <c r="G22" s="15" t="n"/>
+      <c r="H22" s="15" t="n"/>
+      <c r="I22" s="15" t="n"/>
+      <c r="J22" s="16" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12" t="inlineStr">
+        <is>
+          <t>IVD751B43A</t>
+        </is>
+      </c>
+      <c r="D23" s="12" t="inlineStr">
+        <is>
+          <t>НФ-00006829</t>
+        </is>
+      </c>
+      <c r="E23" s="13" t="inlineStr">
+        <is>
+          <t>Преобразователь частоты</t>
+        </is>
+      </c>
+      <c r="F23" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="12" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="D19" s="3" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E19" s="3" t="n">
+      <c r="H23" s="12" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I23" s="12" t="n">
+        <v>16411.86</v>
+      </c>
+      <c r="J23" s="12" t="n">
+        <v>32823.72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F19" s="3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G19" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Датчики температуры в канале</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>MBT3280</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C24" s="13" t="inlineStr">
+        <is>
+          <t>AMC-AER.2.D0075.2.D0075</t>
+        </is>
+      </c>
+      <c r="D24" s="12" t="inlineStr"/>
+      <c r="E24" s="13" t="inlineStr">
+        <is>
+          <t>Шкаф управления автоматикой с ПЛК</t>
+        </is>
+      </c>
+      <c r="F24" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="D20" s="3" t="n">
-        <v>1650</v>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="n">
-        <v>1650</v>
-      </c>
-      <c r="G20" s="4" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>Датчики температуры в помещении</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>TS-R01 PT1000</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G21" s="4" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>Датчик температуры обратной воды*</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>MBT3281</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="n">
-        <v>1050</v>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="n">
-        <v>1050</v>
-      </c>
-      <c r="G22" s="4" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Воздушный термостат</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>TS-6 LEFOO</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="n">
-        <v>4400</v>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="n">
-        <v>4400</v>
-      </c>
-      <c r="G23" s="4" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Датчики влажности</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>THS-02-190-Pt1000</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G24" s="4" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>Шкаф управления автоматикой с ПЛК</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="n"/>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>шт</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>214361</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>214361</v>
-      </c>
-      <c r="G25" s="4" t="n"/>
+      <c r="H24" s="12" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I24" s="12" t="n">
+        <v>38350.34</v>
+      </c>
+      <c r="J24" s="12" t="n">
+        <v>38350.34</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="J26" s="14" t="inlineStr">
+        <is>
+          <t>Итого: 71174.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="J27" s="14" t="inlineStr">
+        <is>
+          <t>В том числе НДС 20% 14234.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Коммерческие условия: </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. Срок поставки: </t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>По договору</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2. Условия поставки: </t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>Отгрузка со склада АГ в Липецке</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3. Условия оплаты: </t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>По договору</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4. Механическая гарантия: </t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>24 месяца с момента отгрузки.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5. Предложение действительно до: </t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">С уважением, </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>фвыапрпиьрпаывыапрп</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Тел.: +7 495 6411601</t>
+        </is>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="H7:J9"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>